--- a/documents/image-regester.xlsx
+++ b/documents/image-regester.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Diploma\web-design\A1\aussie-kidz-charity\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73DFA07-B130-4F59-B39D-BAF5E329E329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30196F7D-8960-474D-A38C-E9B47B92BA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{BBD52AFF-ED87-4C79-9BAE-18D4C78E2138}"/>
+    <workbookView xWindow="2520" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{BBD52AFF-ED87-4C79-9BAE-18D4C78E2138}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>Original File Name</t>
   </si>
@@ -108,21 +108,6 @@
     <t>Free to use / Free to modify</t>
   </si>
   <si>
-    <t>RODNAE Productions</t>
-  </si>
-  <si>
-    <t>https://www.pexels.com/photo/kids-playing-on-the-floor-8364641/</t>
-  </si>
-  <si>
-    <t>pexels-rodnae-productions-8364641</t>
-  </si>
-  <si>
-    <t>6720px x 4480px</t>
-  </si>
-  <si>
-    <t>21.4mb</t>
-  </si>
-  <si>
     <t>Anna Shvets</t>
   </si>
   <si>
@@ -141,9 +126,6 @@
     <t>swings</t>
   </si>
   <si>
-    <t>classroom</t>
-  </si>
-  <si>
     <t>pot-plant</t>
   </si>
   <si>
@@ -153,9 +135,6 @@
     <t>325kb</t>
   </si>
   <si>
-    <t>228kb</t>
-  </si>
-  <si>
     <t>244kb</t>
   </si>
   <si>
@@ -163,13 +142,109 @@
   </si>
   <si>
     <t>images</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/photo/excited-multiethnic-classmates-jumping-off-wooden-scene-located-near-school-5896812/</t>
+  </si>
+  <si>
+    <t>Mary Taylor</t>
+  </si>
+  <si>
+    <t>pexels-mary-taylor-5896812</t>
+  </si>
+  <si>
+    <t>6000px x 4000 px</t>
+  </si>
+  <si>
+    <t>13.7mb</t>
+  </si>
+  <si>
+    <t>playground</t>
+  </si>
+  <si>
+    <t>600px x 400px</t>
+  </si>
+  <si>
+    <t>298kb</t>
+  </si>
+  <si>
+    <t>Resized</t>
+  </si>
+  <si>
+    <t>4.16mb</t>
+  </si>
+  <si>
+    <t>2000px x 3000px</t>
+  </si>
+  <si>
+    <t>Madison Inouye</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/photo/blue-dirty-texture-wall-3826764/</t>
+  </si>
+  <si>
+    <t>pexels-madison-inouye-3826764</t>
+  </si>
+  <si>
+    <t>482px x 1080</t>
+  </si>
+  <si>
+    <t>158kb</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>16.1mb</t>
+  </si>
+  <si>
+    <t>4434px 6092px</t>
+  </si>
+  <si>
+    <t>Meruyert Gonullu</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/photo/girl-in-wheelchair-hugging-sister-in-park-7698660/</t>
+  </si>
+  <si>
+    <t>pexels-meruyert-gonullu-7698660</t>
+  </si>
+  <si>
+    <t>Milena de Narvaez Ayllon</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/photo/panning-photo-of-person-riding-on-horse-2889030/</t>
+  </si>
+  <si>
+    <t>pexels-milena-de-narvaez-ayllon-2889030</t>
+  </si>
+  <si>
+    <t>3551px x 2577px</t>
+  </si>
+  <si>
+    <t>1.07mb</t>
+  </si>
+  <si>
+    <t>4272px x 2848px</t>
+  </si>
+  <si>
+    <t>8.4mb</t>
+  </si>
+  <si>
+    <t>Karen Laårk Boshoff</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/photo/australia-luck-business-money-7186390/</t>
+  </si>
+  <si>
+    <t>pexels-karen-laårk-boshoff-7186390</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,13 +262,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1A1A1A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -284,9 +352,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,7 +698,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,43 +804,43 @@
         <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -789,43 +855,43 @@
         <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>24</v>
@@ -840,55 +906,107 @@
         <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="P5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -898,16 +1016,36 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -917,16 +1055,36 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -973,25 +1131,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-    </row>
+    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/image-regester.xlsx
+++ b/documents/image-regester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Diploma\web-design\A1\aussie-kidz-charity\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30196F7D-8960-474D-A38C-E9B47B92BA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91148308-F35D-401E-BECC-260A9F5367D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{BBD52AFF-ED87-4C79-9BAE-18D4C78E2138}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
   <si>
     <t>Original File Name</t>
   </si>
@@ -238,6 +238,27 @@
   </si>
   <si>
     <t>pexels-karen-laårk-boshoff-7186390</t>
+  </si>
+  <si>
+    <t>wheelchair-kids</t>
+  </si>
+  <si>
+    <t>400px x 400px</t>
+  </si>
+  <si>
+    <t>93.9kb</t>
+  </si>
+  <si>
+    <t>50.7kb</t>
+  </si>
+  <si>
+    <t>51.4kb</t>
+  </si>
+  <si>
+    <t>polo</t>
+  </si>
+  <si>
+    <t>dollar</t>
   </si>
 </sst>
 </file>
@@ -697,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB4BD82-D5A3-4344-8747-0A1D53D8CB7F}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,13 +1028,25 @@
       <c r="J6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="P6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1046,13 +1079,25 @@
       <c r="J7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="K7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1085,13 +1130,25 @@
       <c r="J8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="K8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="P8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>

--- a/documents/image-regester.xlsx
+++ b/documents/image-regester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Diploma\web-design\A1\aussie-kidz-charity\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91148308-F35D-401E-BECC-260A9F5367D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1317EC-3BE1-4841-AEC9-BC7E9AC063E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{BBD52AFF-ED87-4C79-9BAE-18D4C78E2138}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
   <si>
     <t>Original File Name</t>
   </si>
@@ -108,36 +108,15 @@
     <t>Free to use / Free to modify</t>
   </si>
   <si>
-    <t>Anna Shvets</t>
-  </si>
-  <si>
-    <t>5781px x 3854px</t>
-  </si>
-  <si>
-    <t>15.4mb</t>
-  </si>
-  <si>
-    <t>https://www.pexels.com/photo/young-boy-in-jacket-holding-white-flower-pot-3771640/</t>
-  </si>
-  <si>
-    <t>pexels-anna-shvets-3771640</t>
-  </si>
-  <si>
     <t>swings</t>
   </si>
   <si>
-    <t>pot-plant</t>
-  </si>
-  <si>
     <t>1920px x 1080px</t>
   </si>
   <si>
     <t>325kb</t>
   </si>
   <si>
-    <t>244kb</t>
-  </si>
-  <si>
     <t>Resized, Crop</t>
   </si>
   <si>
@@ -171,30 +150,6 @@
     <t>Resized</t>
   </si>
   <si>
-    <t>4.16mb</t>
-  </si>
-  <si>
-    <t>2000px x 3000px</t>
-  </si>
-  <si>
-    <t>Madison Inouye</t>
-  </si>
-  <si>
-    <t>https://www.pexels.com/photo/blue-dirty-texture-wall-3826764/</t>
-  </si>
-  <si>
-    <t>pexels-madison-inouye-3826764</t>
-  </si>
-  <si>
-    <t>482px x 1080</t>
-  </si>
-  <si>
-    <t>158kb</t>
-  </si>
-  <si>
-    <t>wall</t>
-  </si>
-  <si>
     <t>16.1mb</t>
   </si>
   <si>
@@ -259,6 +214,42 @@
   </si>
   <si>
     <t>dollar</t>
+  </si>
+  <si>
+    <t>pexels-yan-krukov-7694424</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/photo/woman-in-white-knit-sweater-sitting-at-the-table-7694424/</t>
+  </si>
+  <si>
+    <t>Yan Krukov</t>
+  </si>
+  <si>
+    <t>11.7mb</t>
+  </si>
+  <si>
+    <t>helping-read</t>
+  </si>
+  <si>
+    <t>230kb</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/photo/two-boys-playing-with-wooden-blocks-in-a-room-8612970/</t>
+  </si>
+  <si>
+    <t>pexels-yan-krukov-8612970</t>
+  </si>
+  <si>
+    <t>3.09mb</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>810px x 540px</t>
+  </si>
+  <si>
+    <t>150kb</t>
   </si>
 </sst>
 </file>
@@ -719,7 +710,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,43 +816,43 @@
         <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -876,43 +867,43 @@
         <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>24</v>
@@ -927,43 +918,43 @@
         <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>24</v>
@@ -978,43 +969,43 @@
         <v>18</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>24</v>
@@ -1029,43 +1020,43 @@
         <v>18</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>24</v>
@@ -1080,43 +1071,43 @@
         <v>18</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>24</v>
@@ -1131,23 +1122,23 @@
         <v>18</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
